--- a/openshift/database/dml/shersched_data.xlsx
+++ b/openshift/database/dml/shersched_data.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.gabelmann/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.gabelmann/Work/_projects/jag-shuber-api/openshift/database/dml/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{37FB59F2-F6B5-DD48-9B52-6D8B1BE56C70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="640" windowWidth="31960" windowHeight="19100" activeTab="3"/>
+    <workbookView xWindow="160" yWindow="640" windowWidth="31960" windowHeight="19100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
     <sheet name="region" sheetId="2" r:id="rId2"/>
     <sheet name="courthouse" sheetId="3" r:id="rId3"/>
     <sheet name="sheriff" sheetId="4" r:id="rId4"/>
+    <sheet name="courtroom" sheetId="5" r:id="rId5"/>
+    <sheet name="shift" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="257">
   <si>
     <t>Table:</t>
   </si>
@@ -768,12 +771,42 @@
   </si>
   <si>
     <t>3a8b614c-a058-4383-b6eb-9bee3d8b5a1a</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>shift_id</t>
+  </si>
+  <si>
+    <t>shift_template_id</t>
+  </si>
+  <si>
+    <t>work_section_code</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>shift_status</t>
+  </si>
+  <si>
+    <t>SHERIFF_ID</t>
+  </si>
+  <si>
+    <t>SHIFT_TEMPLATE_ID</t>
+  </si>
+  <si>
+    <t>COURTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1119,11 +1152,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5881,7 +5914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -6174,7 +6207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11472,7 +11505,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>location!$E$92:$E$96</xm:f>
           </x14:formula1>
@@ -11485,11 +11518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:T8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11929,4 +11962,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F89F8D6-355D-8545-969D-5A551D4BC063}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FB5FAB-2770-0D4D-A97D-5A279FA0CC90}">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" customWidth="1"/>
+    <col min="20" max="20" width="158" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="255.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"2018-02-09 09:00"</f>
+        <v>2018-02-09 09:00</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"2018-02-09 17:00"</f>
+        <v>2018-02-09 17:00</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P3" t="str">
+        <f>"SELECT L.location_id FROM location L WHERE L.location_name='"&amp;C3&amp;"'"</f>
+        <v>SELECT L.location_id FROM location L WHERE L.location_name='VANCOUVER'</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>D3</f>
+        <v>null</v>
+      </c>
+      <c r="R3" t="str">
+        <f>"SELECT s.sheriff_id FROM sheriff s WHERE s.badge_no ='" &amp;E3&amp; "'"</f>
+        <v>SELECT s.sheriff_id FROM sheriff s WHERE s.badge_no ='BN10000'</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f>"INSERT INTO "&amp;$B$1&amp;" ("&amp;$B$2&amp;","&amp;$C$2&amp;","&amp;$D$2&amp;","&amp;$E$2&amp;","&amp;$F$2&amp;","&amp;$G$2&amp;","&amp;$H$2&amp;","&amp;$I$2&amp;","&amp;$J$2&amp;","&amp;$K$2&amp;","&amp;$L$2&amp;","&amp;$M$2&amp;","&amp;$N$2&amp;")"</f>
+        <v>INSERT INTO shift (shift_id,location_id,shift_template_id,sheriff_id,work_section_code,start_time,end_time,shift_status,created_by,updated_by,created_dtm,updated_dtm,revision_count)</v>
+      </c>
+      <c r="U3" t="str">
+        <f>" VALUES "</f>
+        <v xml:space="preserve"> VALUES </v>
+      </c>
+      <c r="V3" t="str">
+        <f>"("&amp;B3&amp;",("&amp;P3&amp;"),"&amp;D3&amp;",("&amp;R3&amp;"),'"&amp;F3&amp;"',to_timestamp('"&amp;G3&amp;"','yyyy-MM-dd HH24:MI'),to_timestamp('"&amp;H3&amp;"','yyyy-MM-dd HH24:MI'),'"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"',"&amp;L3&amp;","&amp;M3&amp;","&amp;N3&amp;");"</f>
+        <v>(uuid_generate_v4(),(SELECT L.location_id FROM location L WHERE L.location_name='VANCOUVER'),null,(SELECT s.sheriff_id FROM sheriff s WHERE s.badge_no ='BN10000'),'COURTS',to_timestamp('2018-02-09 09:00','yyyy-MM-dd HH24:MI'),to_timestamp('2018-02-09 17:00','yyyy-MM-dd HH24:MI'),'','test','test',now(),now(),0);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T4" t="str">
+        <f>$T$3</f>
+        <v>INSERT INTO shift (shift_id,location_id,shift_template_id,sheriff_id,work_section_code,start_time,end_time,shift_status,created_by,updated_by,created_dtm,updated_dtm,revision_count)</v>
+      </c>
+      <c r="U4" t="str">
+        <f>$U$3</f>
+        <v xml:space="preserve"> VALUES </v>
+      </c>
+      <c r="V4" t="str">
+        <f>"("&amp;B4&amp;",("&amp;P4&amp;"),"&amp;D4&amp;",("&amp;R4&amp;"),'"&amp;F4&amp;"',to_timestamp('"&amp;G4&amp;"','yyyy-MM-dd HH24:MI'),to_timestamp('"&amp;H4&amp;"','yyyy-MM-dd HH24:MI'),'"&amp;I4&amp;"','"&amp;J4&amp;"','"&amp;K4&amp;"',"&amp;L4&amp;","&amp;M4&amp;","&amp;N4&amp;");"</f>
+        <v>(,(),,(),'',to_timestamp('','yyyy-MM-dd HH24:MI'),to_timestamp('','yyyy-MM-dd HH24:MI'),'','','',,,);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2110A409-5A10-754A-AB1A-2D9A23A9D023}">
+          <x14:formula1>
+            <xm:f>location!$E$3:$E$96</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D689358C-4B31-FD45-BED2-6E041D961284}">
+          <x14:formula1>
+            <xm:f>sheriff!$C$3:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/openshift/database/dml/shersched_data.xlsx
+++ b/openshift/database/dml/shersched_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.gabelmann/Work/_projects/jag-shuber-api/openshift/database/dml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{37FB59F2-F6B5-DD48-9B52-6D8B1BE56C70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{31F40620-3B45-F141-8824-8E44D4C67C2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="640" windowWidth="31960" windowHeight="19100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11521,8 +11521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11980,8 +11980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FB5FAB-2770-0D4D-A97D-5A279FA0CC90}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11989,7 +11989,7 @@
     <col min="1" max="15" width="16.83203125" customWidth="1"/>
     <col min="16" max="18" width="19.1640625" customWidth="1"/>
     <col min="19" max="19" width="16.83203125" customWidth="1"/>
-    <col min="20" max="20" width="158" customWidth="1"/>
+    <col min="20" max="20" width="156.1640625" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" customWidth="1"/>
     <col min="22" max="22" width="255.6640625" customWidth="1"/>
   </cols>
